--- a/ULP/低功耗ULP-许工(1).xlsx
+++ b/ULP/低功耗ULP-许工(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140" activeTab="1"/>
+    <workbookView windowHeight="18910"/>
   </bookViews>
   <sheets>
     <sheet name="ULP" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>寄存器值处于合理范围内：0-采样周期</t>
   </si>
@@ -30,6 +30,9 @@
     <t>超过阈值</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>超过判定为动的标准</t>
@@ -55,9 +61,6 @@
   </si>
   <si>
     <t>从不动转为动</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>动</t>
@@ -344,19 +347,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +388,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -400,9 +479,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,113 +503,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,13 +601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,103 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +679,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,25 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,26 +1104,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,21 +1120,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,6 +1135,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,20 +1165,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,139 +1219,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,17 +1462,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1576,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,8 +1611,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1725,16 +1697,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,21 +1736,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1871,8 +1843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3645535" y="991235"/>
-          <a:ext cx="867410" cy="438150"/>
+          <a:off x="3645535" y="972185"/>
+          <a:ext cx="867410" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1929,8 +1901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="10622280"/>
-          <a:ext cx="1416050" cy="361950"/>
+          <a:off x="3429000" y="10431780"/>
+          <a:ext cx="1416050" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1988,15 +1960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>98052</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16623</xdr:rowOff>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>97417</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17890</xdr:rowOff>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138427</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2005,8 +1977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3511550" y="3207385"/>
-          <a:ext cx="1137285" cy="363220"/>
+          <a:off x="3498850" y="2912110"/>
+          <a:ext cx="1137285" cy="356235"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2171,8 +2143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5299075" y="12289155"/>
-          <a:ext cx="939165" cy="762000"/>
+          <a:off x="5299075" y="12070080"/>
+          <a:ext cx="939165" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -2229,8 +2201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2903855" y="3825240"/>
-          <a:ext cx="2357120" cy="903605"/>
+          <a:off x="2903855" y="3755390"/>
+          <a:ext cx="2357120" cy="887730"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2403,8 +2375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3368675" y="5086350"/>
-          <a:ext cx="1416050" cy="356235"/>
+          <a:off x="3368675" y="4994275"/>
+          <a:ext cx="1416050" cy="349885"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2571,8 +2543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3182620" y="10760710"/>
-          <a:ext cx="1813560" cy="6350"/>
+          <a:off x="3198495" y="10570210"/>
+          <a:ext cx="1781810" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2603,15 +2575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>65489</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>58030</xdr:rowOff>
+      <xdr:colOff>71755</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>152484</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125976</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81281</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2620,8 +2592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3479165" y="2524760"/>
-          <a:ext cx="1224915" cy="429895"/>
+          <a:off x="3485515" y="2254885"/>
+          <a:ext cx="1224915" cy="423545"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2704,8 +2676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3375660" y="9349105"/>
-          <a:ext cx="1405255" cy="508000"/>
+          <a:off x="3375660" y="9180830"/>
+          <a:ext cx="1405255" cy="501650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2896,8 +2868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="5893435"/>
-          <a:ext cx="2115820" cy="751840"/>
+          <a:off x="3028950" y="5788660"/>
+          <a:ext cx="2115820" cy="735965"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3097,8 +3069,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5144770" y="6273165"/>
-          <a:ext cx="1093470" cy="6396990"/>
+          <a:off x="5144770" y="6158865"/>
+          <a:ext cx="1093470" cy="6285865"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3146,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3368675" y="11697335"/>
-          <a:ext cx="1416050" cy="349885"/>
+          <a:off x="3368675" y="11487785"/>
+          <a:ext cx="1416050" cy="346710"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3217,8 +3189,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4380230" y="11751310"/>
-          <a:ext cx="623570" cy="1214755"/>
+          <a:off x="4386580" y="11532235"/>
+          <a:ext cx="610870" cy="1214755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3264,8 +3236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990215" y="7239000"/>
-          <a:ext cx="2181860" cy="537845"/>
+          <a:off x="2990215" y="7108825"/>
+          <a:ext cx="2181860" cy="528320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3428,8 +3400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3047365" y="8335645"/>
-          <a:ext cx="2052320" cy="599440"/>
+          <a:off x="3047365" y="8186420"/>
+          <a:ext cx="2052320" cy="589915"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3605,8 +3577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3876675" y="9140190"/>
-          <a:ext cx="414020" cy="4445"/>
+          <a:off x="3881120" y="8976360"/>
+          <a:ext cx="404495" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3657,8 +3629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3787140" y="6939280"/>
-          <a:ext cx="593725" cy="5715"/>
+          <a:off x="3791585" y="6813550"/>
+          <a:ext cx="584835" cy="5715"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3709,8 +3681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3801745" y="8056245"/>
-          <a:ext cx="558800" cy="0"/>
+          <a:off x="3806190" y="7911465"/>
+          <a:ext cx="549910" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3761,8 +3733,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="7504430"/>
-          <a:ext cx="1447165" cy="1840865"/>
+          <a:off x="5172075" y="7371080"/>
+          <a:ext cx="1447165" cy="1805940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3808,8 +3780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5909310" y="9345295"/>
-          <a:ext cx="1403985" cy="478155"/>
+          <a:off x="5909310" y="9177020"/>
+          <a:ext cx="1403985" cy="471805"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3993,8 +3965,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4679315" y="9928860"/>
-          <a:ext cx="2045335" cy="1834515"/>
+          <a:off x="4697095" y="9736455"/>
+          <a:ext cx="2010410" cy="1834515"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4027,7 +3999,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>37820</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1031051" cy="287856"/>
+    <xdr:ext cx="1031051" cy="284681"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="文本框 6"/>
@@ -4035,8 +4007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5316220" y="5942965"/>
-          <a:ext cx="1031240" cy="287655"/>
+          <a:off x="5316220" y="5835015"/>
+          <a:ext cx="1031240" cy="284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4080,7 +4052,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>30460</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1877437" cy="287856"/>
+    <xdr:ext cx="1877437" cy="284681"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="文本框 56"/>
@@ -4088,8 +4060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4845050" y="7202170"/>
-          <a:ext cx="1877695" cy="288290"/>
+          <a:off x="4845050" y="7071995"/>
+          <a:ext cx="1877695" cy="285115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4146,8 +4118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14571980" y="782955"/>
-          <a:ext cx="857250" cy="455930"/>
+          <a:off x="14571980" y="767080"/>
+          <a:ext cx="857250" cy="446405"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4220,8 +4192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14303375" y="1583690"/>
-          <a:ext cx="1398905" cy="360045"/>
+          <a:off x="14303375" y="1551940"/>
+          <a:ext cx="1398905" cy="353695"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4311,8 +4283,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14990445" y="1238885"/>
-          <a:ext cx="2540" cy="344805"/>
+          <a:off x="14990445" y="1213485"/>
+          <a:ext cx="2540" cy="338455"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4358,8 +4330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14298295" y="2290445"/>
-          <a:ext cx="1398905" cy="360045"/>
+          <a:off x="14298295" y="2245995"/>
+          <a:ext cx="1398905" cy="353695"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4535,8 +4507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14987905" y="1943735"/>
-          <a:ext cx="5080" cy="346710"/>
+          <a:off x="14987905" y="1905635"/>
+          <a:ext cx="5080" cy="340360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4582,8 +4554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14241780" y="2985135"/>
-          <a:ext cx="1507490" cy="610870"/>
+          <a:off x="14241780" y="2931160"/>
+          <a:ext cx="1507490" cy="598170"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4751,8 +4723,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14986635" y="2650490"/>
-          <a:ext cx="1270" cy="334645"/>
+          <a:off x="14986635" y="2599690"/>
+          <a:ext cx="1270" cy="331470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4798,8 +4770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13815695" y="5194300"/>
-          <a:ext cx="2358390" cy="605155"/>
+          <a:off x="13815695" y="5099050"/>
+          <a:ext cx="2358390" cy="595630"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4958,8 +4930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10982960" y="6657340"/>
-          <a:ext cx="1402080" cy="359410"/>
+          <a:off x="10982960" y="6536690"/>
+          <a:ext cx="1402080" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5140,8 +5112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13719810" y="6657340"/>
-          <a:ext cx="1398905" cy="359410"/>
+          <a:off x="13719810" y="6536690"/>
+          <a:ext cx="1398905" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5322,8 +5294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16177260" y="6657340"/>
-          <a:ext cx="1398905" cy="359410"/>
+          <a:off x="16177260" y="6536690"/>
+          <a:ext cx="1398905" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5488,8 +5460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14304010" y="3940810"/>
-          <a:ext cx="1399540" cy="906780"/>
+          <a:off x="14304010" y="3867785"/>
+          <a:ext cx="1399540" cy="890905"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5713,8 +5685,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14817725" y="3764915"/>
-          <a:ext cx="344805" cy="6985"/>
+          <a:off x="14820900" y="3695065"/>
+          <a:ext cx="338455" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5744,68 +5716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>201177</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>202120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12866</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="肘形连接符 92"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="65" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14820900" y="5020310"/>
-          <a:ext cx="346710" cy="635"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>27454</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>25822</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>29662</xdr:colOff>
+      <xdr:colOff>19685</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5817,12 +5737,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11374120" y="7333615"/>
-          <a:ext cx="635635" cy="2540"/>
+          <a:off x="11356975" y="7202805"/>
+          <a:ext cx="639445" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50050"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5866,8 +5786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16181070" y="7576185"/>
-          <a:ext cx="1391920" cy="360045"/>
+          <a:off x="16181070" y="7439660"/>
+          <a:ext cx="1391920" cy="353695"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6052,8 +5972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13719810" y="7598410"/>
-          <a:ext cx="1402080" cy="359410"/>
+          <a:off x="13719810" y="7461885"/>
+          <a:ext cx="1402080" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6218,8 +6138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13719175" y="9478645"/>
-          <a:ext cx="1402715" cy="711835"/>
+          <a:off x="13719175" y="9310370"/>
+          <a:ext cx="1402715" cy="699135"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6404,8 +6324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13691870" y="10808970"/>
-          <a:ext cx="1402080" cy="359410"/>
+          <a:off x="13691870" y="10615295"/>
+          <a:ext cx="1402080" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6570,8 +6490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18618835" y="6657340"/>
-          <a:ext cx="1398905" cy="359410"/>
+          <a:off x="18618835" y="6536690"/>
+          <a:ext cx="1398905" cy="353060"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6736,8 +6656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18642965" y="7553960"/>
-          <a:ext cx="1391920" cy="361950"/>
+          <a:off x="18642965" y="7417435"/>
+          <a:ext cx="1391920" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6909,7 +6829,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>49872</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1324749" cy="502831"/>
+    <xdr:ext cx="1324749" cy="493306"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="111" name="流程图: 可选过程 110"/>
@@ -6917,8 +6837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16165830" y="10117455"/>
-          <a:ext cx="1325245" cy="502920"/>
+          <a:off x="16165830" y="9936480"/>
+          <a:ext cx="1325245" cy="493395"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -7074,28 +6994,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>30782</xdr:colOff>
+      <xdr:colOff>30540</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>75118</xdr:rowOff>
+      <xdr:rowOff>68520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>202121</xdr:colOff>
+      <xdr:colOff>201879</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>28137</xdr:rowOff>
+      <xdr:rowOff>21539</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="117" name="肘形连接符 92"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="2"/>
-          <a:endCxn id="66" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12915265" y="4577715"/>
-          <a:ext cx="857885" cy="3300730"/>
+          <a:off x="12923520" y="4458970"/>
+          <a:ext cx="842010" cy="3300095"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7146,8 +7063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14272895" y="5935345"/>
-          <a:ext cx="857885" cy="585470"/>
+          <a:off x="14281150" y="5822950"/>
+          <a:ext cx="842010" cy="585470"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7198,8 +7115,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15510510" y="5283200"/>
-          <a:ext cx="857885" cy="1889760"/>
+          <a:off x="15518765" y="5170805"/>
+          <a:ext cx="842010" cy="1889760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7250,8 +7167,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16723360" y="4070350"/>
-          <a:ext cx="857885" cy="4315460"/>
+          <a:off x="16731615" y="3957955"/>
+          <a:ext cx="842010" cy="4315460"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7281,12 +7198,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>226358</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2269191" cy="1257708"/>
+    <xdr:ext cx="2269191" cy="1235483"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="129" name="流程图: 决策 128"/>
@@ -7294,8 +7211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10467340" y="7653020"/>
-          <a:ext cx="2268855" cy="1257935"/>
+          <a:off x="10535920" y="7529195"/>
+          <a:ext cx="2268855" cy="1235075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -7504,8 +7421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13527405" y="8365490"/>
-          <a:ext cx="1765300" cy="607695"/>
+          <a:off x="13527405" y="8216265"/>
+          <a:ext cx="1765300" cy="598170"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -7664,8 +7581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18447385" y="8496300"/>
-          <a:ext cx="1783080" cy="607695"/>
+          <a:off x="18447385" y="8343900"/>
+          <a:ext cx="1783080" cy="598170"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -7815,7 +7732,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1949765" cy="292301"/>
+    <xdr:ext cx="1949765" cy="285951"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="文本框 47"/>
@@ -7823,8 +7740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20013930" y="4084955"/>
-          <a:ext cx="1950085" cy="292100"/>
+          <a:off x="20013930" y="4011930"/>
+          <a:ext cx="1950085" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7917,15 +7834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>27508</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>36859</xdr:colOff>
+      <xdr:colOff>36830</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>16157</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7937,12 +7854,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12896215" y="8285480"/>
-          <a:ext cx="795655" cy="2703195"/>
+          <a:off x="12804775" y="8147050"/>
+          <a:ext cx="887095" cy="2644775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50036"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7986,8 +7903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10976610" y="9913620"/>
-          <a:ext cx="1402080" cy="492760"/>
+          <a:off x="10976610" y="9735820"/>
+          <a:ext cx="1402080" cy="486410"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -8179,15 +8096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>23220</xdr:colOff>
+      <xdr:colOff>6032</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>112166</xdr:rowOff>
+      <xdr:rowOff>121602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>27455</xdr:colOff>
+      <xdr:colOff>13017</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>27186</xdr:rowOff>
+      <xdr:rowOff>26352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -8198,13 +8115,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11188065" y="9411335"/>
-          <a:ext cx="1000760" cy="4445"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="11186795" y="9245600"/>
+          <a:ext cx="971550" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 49967"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8251,8 +8168,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12398375" y="9695180"/>
-          <a:ext cx="582295" cy="2004060"/>
+          <a:off x="12404725" y="9504680"/>
+          <a:ext cx="569595" cy="2004060"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8301,8 +8218,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14206855" y="8160385"/>
-          <a:ext cx="407670" cy="2540"/>
+          <a:off x="14210030" y="8014335"/>
+          <a:ext cx="401320" cy="2540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8353,8 +8270,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14088745" y="10485755"/>
-          <a:ext cx="617855" cy="27940"/>
+          <a:off x="14095095" y="10298430"/>
+          <a:ext cx="605155" cy="27940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8405,8 +8322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14119225" y="7306945"/>
-          <a:ext cx="581660" cy="1270"/>
+          <a:off x="14124305" y="7174865"/>
+          <a:ext cx="571500" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8457,8 +8374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14157960" y="9224645"/>
-          <a:ext cx="505460" cy="1905"/>
+          <a:off x="14162405" y="9061450"/>
+          <a:ext cx="496570" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8509,8 +8426,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15093950" y="8671560"/>
-          <a:ext cx="198755" cy="2317115"/>
+          <a:off x="15093950" y="8515985"/>
+          <a:ext cx="198755" cy="2275840"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8561,8 +8478,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16604615" y="7296785"/>
-          <a:ext cx="559435" cy="0"/>
+          <a:off x="16609695" y="7164705"/>
+          <a:ext cx="549910" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8613,8 +8530,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15806420" y="9913620"/>
-          <a:ext cx="362585" cy="1787525"/>
+          <a:off x="15809595" y="9719945"/>
+          <a:ext cx="356235" cy="1787525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8663,8 +8580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16603345" y="8216900"/>
-          <a:ext cx="563245" cy="1270"/>
+          <a:off x="16608425" y="8068945"/>
+          <a:ext cx="553085" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8715,8 +8632,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="19061430" y="7266305"/>
-          <a:ext cx="536575" cy="38735"/>
+          <a:off x="19065875" y="7134225"/>
+          <a:ext cx="527685" cy="38735"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8767,8 +8684,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="19058255" y="8205470"/>
-          <a:ext cx="580390" cy="1270"/>
+          <a:off x="19062700" y="8058150"/>
+          <a:ext cx="571500" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8819,8 +8736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="19051270" y="9400540"/>
-          <a:ext cx="602615" cy="9525"/>
+          <a:off x="19057620" y="9232265"/>
+          <a:ext cx="589915" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8868,8 +8785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16002000" y="8498840"/>
-          <a:ext cx="1765300" cy="607695"/>
+          <a:off x="16002000" y="8346440"/>
+          <a:ext cx="1765300" cy="598170"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -9027,8 +8944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15093950" y="8809990"/>
-          <a:ext cx="2673350" cy="2178685"/>
+          <a:off x="15093950" y="8651240"/>
+          <a:ext cx="2673350" cy="2140585"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9079,8 +8996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16785590" y="9204960"/>
-          <a:ext cx="201930" cy="4445"/>
+          <a:off x="16786860" y="9041765"/>
+          <a:ext cx="199390" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9128,8 +9045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15798800" y="9308465"/>
-          <a:ext cx="2180590" cy="612140"/>
+          <a:off x="15798800" y="9143365"/>
+          <a:ext cx="2180590" cy="599440"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -9329,8 +9246,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16786860" y="10015855"/>
-          <a:ext cx="196850" cy="6985"/>
+          <a:off x="16788130" y="9836150"/>
+          <a:ext cx="193675" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9381,8 +9298,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15093950" y="9614535"/>
-          <a:ext cx="2885440" cy="1374140"/>
+          <a:off x="15093950" y="9443085"/>
+          <a:ext cx="2885440" cy="1348740"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9433,8 +9350,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20044410" y="8807450"/>
-          <a:ext cx="186055" cy="1806575"/>
+          <a:off x="20044410" y="8648700"/>
+          <a:ext cx="186055" cy="1774825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9482,8 +9399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18652490" y="9706610"/>
-          <a:ext cx="1391920" cy="347345"/>
+          <a:off x="18652490" y="9531985"/>
+          <a:ext cx="1391920" cy="344170"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -9667,8 +9584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="19171920" y="10249535"/>
-          <a:ext cx="371475" cy="12700"/>
+          <a:off x="19175095" y="10065385"/>
+          <a:ext cx="365125" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9716,8 +9633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18652490" y="10435590"/>
-          <a:ext cx="1391920" cy="356870"/>
+          <a:off x="18652490" y="10248265"/>
+          <a:ext cx="1391920" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -9901,8 +9818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="17127855" y="8758555"/>
-          <a:ext cx="196215" cy="4263390"/>
+          <a:off x="17129125" y="8563610"/>
+          <a:ext cx="193040" cy="4263390"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9935,7 +9852,7 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>156041</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2866184" cy="618977"/>
+    <xdr:ext cx="2866184" cy="606277"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="150" name="文本框 149"/>
@@ -9943,8 +9860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20891500" y="8775700"/>
-          <a:ext cx="2866390" cy="619125"/>
+          <a:off x="20891500" y="8620125"/>
+          <a:ext cx="2866390" cy="606425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10096,7 +10013,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>151278</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3656642" cy="1074393"/>
+    <xdr:ext cx="3656642" cy="1055343"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="152" name="文本框 151"/>
@@ -10104,8 +10021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18373725" y="1170305"/>
-          <a:ext cx="3656965" cy="1074420"/>
+          <a:off x="18373725" y="1148080"/>
+          <a:ext cx="3656965" cy="1055370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10210,62 +10127,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104406</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>48725</xdr:rowOff>
+      <xdr:colOff>92392</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>106239</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="连接符: 肘形 235"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3920490" y="1595755"/>
-          <a:ext cx="334645" cy="1905"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>105323</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>89340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108986</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>58029</xdr:rowOff>
+      <xdr:colOff>115252</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13017</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10276,9 +10146,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3924300" y="2357755"/>
-          <a:ext cx="330835" cy="3175"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="3993515" y="2150110"/>
+          <a:ext cx="184785" cy="22860"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10309,15 +10179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>61826</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21396</xdr:rowOff>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>148821</xdr:colOff>
+      <xdr:colOff>135890</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>89341</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10326,8 +10196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3475355" y="1764030"/>
-          <a:ext cx="1224915" cy="429895"/>
+          <a:off x="3462655" y="1646555"/>
+          <a:ext cx="1224915" cy="423545"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -10377,15 +10247,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>97735</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125975</xdr:rowOff>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>108987</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16622</xdr:rowOff>
+      <xdr:colOff>115570</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -10397,8 +10267,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3959225" y="3075305"/>
-          <a:ext cx="252730" cy="11430"/>
+          <a:off x="3966210" y="2780030"/>
+          <a:ext cx="233680" cy="30480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10449,8 +10319,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3904615" y="4906645"/>
-          <a:ext cx="357505" cy="1905"/>
+          <a:off x="3907790" y="4817745"/>
+          <a:ext cx="351155" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10501,8 +10371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4086860" y="4281170"/>
-          <a:ext cx="1174115" cy="1612265"/>
+          <a:off x="4086860" y="4201795"/>
+          <a:ext cx="1174115" cy="1586865"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -10538,7 +10408,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="889987" cy="292301"/>
+    <xdr:ext cx="889987" cy="285951"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="217" name="文本框 216"/>
@@ -10546,8 +10416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="3985895"/>
-          <a:ext cx="890270" cy="292100"/>
+          <a:off x="5410200" y="3912870"/>
+          <a:ext cx="890270" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10587,58 +10457,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>97734</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>100043</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92044</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="320" name="连接符: 肘形 319"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3953510" y="3696970"/>
-          <a:ext cx="255270" cy="1905"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>102037</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>80516</xdr:rowOff>
@@ -10659,8 +10477,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3860165" y="5666740"/>
-          <a:ext cx="450850" cy="2540"/>
+          <a:off x="3863340" y="5565140"/>
+          <a:ext cx="444500" cy="2540"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10711,8 +10529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4784725" y="8639175"/>
-          <a:ext cx="314960" cy="3229610"/>
+          <a:off x="4784725" y="8483600"/>
+          <a:ext cx="314960" cy="3175635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10721,6 +10539,1684 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 可选过程 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5332730" y="2708910"/>
+          <a:ext cx="1509395" cy="527685"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-GB" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>获取每个方向的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>min max average  *2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" altLang="zh-CN" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8155940" y="1384300"/>
+          <a:ext cx="4488180" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>轴在一个采样周期中的的min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最小值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最大值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、average</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平均值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  定义以下变量用来存放所需要的值</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         min_x    max_x   average_x</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         min_z    max_z   average_z  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  平均值获取方法：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n*average_last+value)/n+1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的取值范围为：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0---(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>采样次数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   average_last:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上次采样的平均值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>首次默认为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   value:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本次采样的数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="肘形连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4798060" y="1978660"/>
+          <a:ext cx="559435" cy="2019935"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42565"/>
+            <a:gd name="adj2" fmla="val 45383"/>
+            <a:gd name="adj3" fmla="val 142565"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95885</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="146" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4075430" y="1400810"/>
+          <a:ext cx="3175" cy="245745"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97472</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111442</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="肘形连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4822825" y="2483485"/>
+          <a:ext cx="518795" cy="2005330"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70930"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>267970</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="流程图: 决策 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8171815" y="7327900"/>
+          <a:ext cx="1768475" cy="842645"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>唤醒源是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>ULP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="流程图: 可选过程 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8355330" y="8515985"/>
+          <a:ext cx="1399540" cy="890905"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x/z </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>轴的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>min</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>average </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>保存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>flash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="流程图: 可选过程 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8274050" y="6508750"/>
+          <a:ext cx="1596390" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>T:Threshold(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>取阈值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="肘形连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11626850" y="3140710"/>
+          <a:ext cx="814070" cy="5922010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>52705</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="流程图: 可选过程 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8394700" y="9740900"/>
+          <a:ext cx="1330325" cy="643890"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>采集一天数据后上传至服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9056370" y="6854190"/>
+          <a:ext cx="16510" cy="473710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9055735" y="8170545"/>
+          <a:ext cx="635" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9055735" y="9406890"/>
+          <a:ext cx="5080" cy="334010"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="肘形连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="11172825" y="8272780"/>
+          <a:ext cx="407035" cy="4631055"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>267970</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="肘形连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9940290" y="7749540"/>
+          <a:ext cx="3751580" cy="3042285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10579"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14994890" y="4758690"/>
+          <a:ext cx="9525" cy="340360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -10752,7 +12248,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4544064" cy="683347"/>
+    <xdr:ext cx="4544064" cy="670647"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
@@ -10760,8 +12256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="930910" y="2952750"/>
-          <a:ext cx="4544060" cy="683260"/>
+          <a:off x="930910" y="2901950"/>
+          <a:ext cx="4544060" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11087,13 +12583,13 @@
   <sheetPr/>
   <dimension ref="B3:BT123"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P16" workbookViewId="0">
-      <selection activeCell="CA56" sqref="CA56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.73333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="3.73333333333333" defaultRowHeight="14"/>
   <sheetData>
-    <row r="3" ht="23.25" spans="2:52">
+    <row r="3" ht="22.5" spans="2:52">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -11109,18 +12605,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="40:67">
+    <row r="36" spans="32:67">
+      <c r="AF36" t="s">
+        <v>4</v>
+      </c>
       <c r="AN36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="37:64">
@@ -11129,72 +12628,82 @@
       <c r="BC39" s="1"/>
       <c r="BL39" s="1"/>
     </row>
+    <row r="42" spans="36:36">
+      <c r="AJ42" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="44" spans="12:12">
       <c r="L44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="46:46">
       <c r="AT45" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="30:30">
+      <c r="AD46" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="19:72">
       <c r="S47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB47" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK47" t="s">
         <v>11</v>
       </c>
-      <c r="BK47" t="s">
-        <v>9</v>
-      </c>
       <c r="BT47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="11:50">
       <c r="K50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="59:59">
       <c r="BG51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="68:68">
       <c r="BP52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="43:59">
       <c r="AQ53" s="1"/>
       <c r="AX53" s="1"/>
       <c r="BG53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="64:64">
       <c r="BL54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="61:61">
       <c r="BI55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="48:59">
       <c r="AV58" s="1"/>
       <c r="BG58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="36:36">
@@ -11202,52 +12711,52 @@
     </row>
     <row r="61" spans="57:57">
       <c r="BE61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="85" ht="23.25" spans="11:11">
+    <row r="85" ht="22.5" spans="11:11">
       <c r="K85" s="148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="12:12">
       <c r="L87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="88" ht="15"/>
+    <row r="88" ht="14.75"/>
     <row r="89" spans="13:18">
       <c r="M89" s="149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N89" s="150"/>
       <c r="O89" s="151"/>
       <c r="P89" s="150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="150"/>
       <c r="R89" s="151"/>
     </row>
-    <row r="90" ht="15" spans="13:18">
+    <row r="90" ht="14.75" spans="13:18">
       <c r="M90" s="152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N90" s="153"/>
       <c r="O90" s="154"/>
       <c r="P90" s="153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="153"/>
       <c r="R90" s="154"/>
     </row>
     <row r="92" spans="12:12">
       <c r="L92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="13:19">
       <c r="M94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -11264,7 +12773,7 @@
         <v>9</v>
       </c>
       <c r="V96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="16:22">
@@ -11275,127 +12784,127 @@
         <v>9</v>
       </c>
       <c r="V98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="12:12">
       <c r="L106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="107" ht="15"/>
+    <row r="107" ht="14.75"/>
     <row r="108" spans="13:18">
       <c r="M108" s="149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N108" s="150"/>
       <c r="O108" s="151"/>
       <c r="P108" s="150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q108" s="150"/>
       <c r="R108" s="151"/>
     </row>
-    <row r="109" ht="15" spans="13:18">
+    <row r="109" ht="14.75" spans="13:18">
       <c r="M109" s="152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N109" s="153"/>
       <c r="O109" s="154"/>
       <c r="P109" s="153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q109" s="153"/>
       <c r="R109" s="154"/>
     </row>
     <row r="113" spans="12:12">
       <c r="L113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="12:12">
       <c r="L114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="12:12">
       <c r="L115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="12:20">
       <c r="L118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="12:20">
       <c r="L119" s="155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="12:20">
       <c r="L120" s="155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="12:20">
       <c r="L121" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="O121" t="s">
+        <v>39</v>
+      </c>
+      <c r="T121" t="s">
         <v>40</v>
-      </c>
-      <c r="O121" t="s">
-        <v>38</v>
-      </c>
-      <c r="T121" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="122" spans="12:20">
       <c r="L122" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" t="s">
+        <v>42</v>
+      </c>
+      <c r="T122" t="s">
         <v>40</v>
-      </c>
-      <c r="O122" t="s">
-        <v>41</v>
-      </c>
-      <c r="T122" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="123" spans="12:12">
@@ -11414,11 +12923,11 @@
   <sheetPr/>
   <dimension ref="B2:AA31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.6" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.2" customWidth="1"/>
     <col min="2" max="2" width="9.53333333333333" customWidth="1"/>
@@ -11427,13 +12936,13 @@
     <col min="27" max="27" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15"/>
+    <row r="2" ht="14.75"/>
     <row r="3" spans="2:27">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -11443,18 +12952,18 @@
       <c r="I3" s="6"/>
       <c r="J3" s="51"/>
       <c r="K3" s="52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="55"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="55"/>
       <c r="T3" s="101"/>
@@ -11462,7 +12971,7 @@
       <c r="V3" s="102"/>
       <c r="W3" s="103"/>
       <c r="X3" s="104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="104"/>
       <c r="Z3" s="104"/>
@@ -11483,12 +12992,12 @@
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
       <c r="O4" s="59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="105"/>
       <c r="R4" s="106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="60"/>
       <c r="T4" s="107"/>
@@ -11500,7 +13009,7 @@
       <c r="Z4" s="110"/>
       <c r="AA4" s="132"/>
     </row>
-    <row r="5" ht="15" spans="2:27">
+    <row r="5" ht="14.75" spans="2:27">
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -11515,12 +13024,12 @@
       <c r="M5" s="63"/>
       <c r="N5" s="63"/>
       <c r="O5" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="60"/>
       <c r="Q5" s="105"/>
       <c r="R5" s="106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" s="60"/>
       <c r="T5" s="107"/>
@@ -11537,7 +13046,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -11547,18 +13056,18 @@
       <c r="I6" s="15"/>
       <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
       <c r="N6" s="66"/>
       <c r="O6" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="68"/>
       <c r="Q6" s="112"/>
       <c r="R6" s="113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" s="68"/>
       <c r="T6" s="114"/>
@@ -11566,7 +13075,7 @@
       <c r="V6" s="115"/>
       <c r="W6" s="116"/>
       <c r="X6" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y6" s="66"/>
       <c r="Z6" s="66"/>
@@ -11587,12 +13096,12 @@
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" s="68"/>
       <c r="Q7" s="112"/>
       <c r="R7" s="113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S7" s="68"/>
       <c r="T7" s="114"/>
@@ -11604,7 +13113,7 @@
       <c r="Z7" s="71"/>
       <c r="AA7" s="135"/>
     </row>
-    <row r="8" ht="15" spans="2:27">
+    <row r="8" ht="14.75" spans="2:27">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -11619,16 +13128,16 @@
       <c r="M8" s="74"/>
       <c r="N8" s="74"/>
       <c r="O8" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="68"/>
       <c r="Q8" s="112"/>
       <c r="R8" s="113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" s="115"/>
       <c r="V8" s="115"/>
@@ -11643,7 +13152,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -11653,28 +13162,28 @@
       <c r="I9" s="24"/>
       <c r="J9" s="75"/>
       <c r="K9" s="76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="77"/>
       <c r="M9" s="77"/>
       <c r="N9" s="77"/>
       <c r="O9" s="78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="79"/>
       <c r="Q9" s="117"/>
       <c r="R9" s="118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9" s="79"/>
       <c r="T9" s="119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" s="120"/>
       <c r="V9" s="120"/>
       <c r="W9" s="121"/>
       <c r="X9" s="77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="77"/>
       <c r="Z9" s="77"/>
@@ -11695,16 +13204,16 @@
       <c r="M10" s="82"/>
       <c r="N10" s="82"/>
       <c r="O10" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="117"/>
       <c r="R10" s="118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S10" s="79"/>
       <c r="T10" s="119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" s="120"/>
       <c r="V10" s="120"/>
@@ -11714,7 +13223,7 @@
       <c r="Z10" s="82"/>
       <c r="AA10" s="138"/>
     </row>
-    <row r="11" ht="15" spans="2:27">
+    <row r="11" ht="14.75" spans="2:27">
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -11729,16 +13238,16 @@
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
       <c r="O11" s="78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="79"/>
       <c r="Q11" s="117"/>
       <c r="R11" s="118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S11" s="79"/>
       <c r="T11" s="119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U11" s="120"/>
       <c r="V11" s="120"/>
@@ -11753,7 +13262,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -11763,28 +13272,28 @@
       <c r="I12" s="33"/>
       <c r="J12" s="86"/>
       <c r="K12" s="87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" s="88"/>
       <c r="M12" s="88"/>
       <c r="N12" s="88"/>
       <c r="O12" s="89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P12" s="90"/>
       <c r="Q12" s="122"/>
       <c r="R12" s="123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S12" s="90"/>
       <c r="T12" s="124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U12" s="125"/>
       <c r="V12" s="125"/>
       <c r="W12" s="126"/>
       <c r="X12" s="127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="127"/>
       <c r="Z12" s="127"/>
@@ -11805,16 +13314,16 @@
       <c r="M13" s="93"/>
       <c r="N13" s="93"/>
       <c r="O13" s="89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="90"/>
       <c r="Q13" s="122"/>
       <c r="R13" s="123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S13" s="90"/>
       <c r="T13" s="124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U13" s="125"/>
       <c r="V13" s="125"/>
@@ -11824,7 +13333,7 @@
       <c r="Z13" s="128"/>
       <c r="AA13" s="141"/>
     </row>
-    <row r="14" ht="15" spans="2:27">
+    <row r="14" ht="14.75" spans="2:27">
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
@@ -11839,12 +13348,12 @@
       <c r="M14" s="96"/>
       <c r="N14" s="96"/>
       <c r="O14" s="89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P14" s="90"/>
       <c r="Q14" s="122"/>
       <c r="R14" s="129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S14" s="90"/>
       <c r="T14" s="124"/>
@@ -11858,13 +13367,13 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15" spans="2:27">
+    <row r="17" ht="14.75"/>
+    <row r="18" ht="14.75" spans="2:27">
       <c r="B18" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
@@ -11942,7 +13451,7 @@
     </row>
     <row r="19" spans="2:27">
       <c r="B19" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="43">
         <v>1</v>
@@ -12018,9 +13527,9 @@
       </c>
       <c r="AA19" s="144"/>
     </row>
-    <row r="20" ht="15" spans="2:27">
+    <row r="20" ht="14.75" spans="2:27">
       <c r="B20" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -12050,7 +13559,7 @@
     </row>
     <row r="21" spans="2:27">
       <c r="B21" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -12078,9 +13587,9 @@
       <c r="Z21" s="145"/>
       <c r="AA21" s="144"/>
     </row>
-    <row r="22" ht="15" spans="2:27">
+    <row r="22" ht="14.75" spans="2:27">
       <c r="B22" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="45">
         <v>1</v>
@@ -12158,12 +13667,12 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="5:20">
@@ -12205,7 +13714,7 @@
         <v>11</v>
       </c>
       <c r="R29" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S29" s="49">
         <v>46</v>
@@ -12216,7 +13725,7 @@
     </row>
     <row r="30" spans="5:20">
       <c r="E30" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="49">
         <v>1</v>
@@ -12255,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" s="49">
         <v>1</v>
@@ -12266,7 +13775,7 @@
     </row>
     <row r="31" spans="5:20">
       <c r="E31" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="49">
         <v>1</v>
@@ -12305,7 +13814,7 @@
         <v>2</v>
       </c>
       <c r="R31" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" s="49">
         <v>3</v>
@@ -12384,7 +13893,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.73333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.73333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="9" width="4.46666666666667" customWidth="1"/>
     <col min="10" max="10" width="9.53333333333333" customWidth="1"/>
@@ -12396,33 +13905,33 @@
   <sheetData>
     <row r="7" spans="4:13">
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="4:13">
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12442,10 +13951,10 @@
     </row>
     <row r="9" spans="4:13">
       <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -12465,10 +13974,10 @@
     </row>
     <row r="10" spans="4:13">
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -12488,10 +13997,10 @@
     </row>
     <row r="11" spans="4:13">
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -12511,10 +14020,10 @@
     </row>
     <row r="12" spans="4:13">
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -12534,10 +14043,10 @@
     </row>
     <row r="13" spans="4:13">
       <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -12557,10 +14066,10 @@
     </row>
     <row r="14" spans="4:13">
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>3</v>
